--- a/Notes/MCMC/Cell Phone.xlsx
+++ b/Notes/MCMC/Cell Phone.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/SCHAS/git/Notebooks/Notes/MCMC/Examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/SCHAS/git/Notebooks/Notes/MCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="20500" windowHeight="15940" activeTab="2"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25140" windowHeight="15940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
-    <sheet name="CB_DATA_" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="CB_DATA_" sheetId="3" r:id="rId2"/>
     <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Deciding on a Monthly Cell Phone Plan</t>
   </si>
@@ -356,16 +356,13 @@
     <t>Crystal Ball Team</t>
   </si>
   <si>
-    <t>::PROB::D11::Normal::{mu: 400, sd:20}</t>
-  </si>
-  <si>
-    <t>::PROB::D12::Triangular::l::{1:.1, h:.4,m:.3}</t>
-  </si>
-  <si>
-    <t>::PROB::D10:Pyms3.</t>
-  </si>
-  <si>
-    <t>::DETR::D14::ROIFunction()</t>
+    <t>D11 = pymc3.Normal("Market Penetration",mu=400, sd=20)</t>
+  </si>
+  <si>
+    <t>D12 = pymc3.Triangular("s", lower=.1 upper=.2,  median=0.4)</t>
+  </si>
+  <si>
+    <t>pymc3.Deterministic("Cost Savings",  D15())</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -495,10 +492,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006E32"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -556,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -686,15 +698,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,15 +827,22 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,7 +1666,7 @@
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="2" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1647,7 +1683,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:9" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -1655,11 +1691,11 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1705,7 @@
       <c r="D4" s="33">
         <v>35</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1683,11 +1719,8 @@
       <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1696,6 +1729,9 @@
       </c>
       <c r="D6" s="35">
         <v>0</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,12 +1759,12 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D10" s="38" t="s">
@@ -1808,9 +1844,7 @@
         <f>D8-C8</f>
         <v>4.6099999999999994</v>
       </c>
-      <c r="I15" s="41" t="s">
-        <v>61</v>
-      </c>
+      <c r="I15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Notes/MCMC/Cell Phone.xlsx
+++ b/Notes/MCMC/Cell Phone.xlsx
@@ -356,13 +356,13 @@
     <t>Crystal Ball Team</t>
   </si>
   <si>
-    <t>D11 = pymc3.Normal("Market Penetration",mu=400, sd=20)</t>
-  </si>
-  <si>
     <t>D12 = pymc3.Triangular("s", lower=.1 upper=.2,  median=0.4)</t>
   </si>
   <si>
     <t>pymc3.Deterministic("Cost Savings",  D15())</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1655,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
